--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslz_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslz_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC32191-65DB-4BEA-9903-315A875A7724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A357CD-F239-4B27-9BE1-6DC8480B382E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,15 +837,30 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -867,9 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -879,9 +891,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -900,12 +909,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -913,9 +916,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,115 +1397,115 @@
       </c>
     </row>
     <row r="2" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="50" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="35" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31" t="s">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="36"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="41"/>
     </row>
     <row r="4" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1521,15 +1521,15 @@
       <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="54"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="AF4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AG4" s="36"/>
+      <c r="AG4" s="41"/>
     </row>
     <row r="5" spans="2:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
@@ -1912,12 +1912,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="AG2:AG4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="N3:N4"/>
@@ -1931,14 +1925,24 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="W3:AB3"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1984,20 +1988,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2189,7 +2180,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2197,23 +2205,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2230,4 +2222,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslz_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslz_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A357CD-F239-4B27-9BE1-6DC8480B382E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740014BE-ECA1-4072-A21A-0E7761327A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sslz_Beispielbefüllung" sheetId="9" r:id="rId1"/>
@@ -295,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -339,7 +339,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -351,26 +353,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -392,7 +374,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -406,33 +390,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -451,37 +411,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -494,32 +447,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -530,32 +457,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -567,183 +468,21 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -751,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -772,30 +511,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -804,25 +531,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,85 +567,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -936,9 +594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -976,9 +634,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,26 +669,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,26 +704,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1259,13 +883,13 @@
   <dimension ref="B1:AG62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1294,7 +918,7 @@
     <col min="28" max="28" width="3.140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="6.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="13" customWidth="1"/>
     <col min="34" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1314,381 +938,357 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AG1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="31" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="31" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="40" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="41"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="28"/>
     </row>
     <row r="4" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="55"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AG4" s="41"/>
+      <c r="AG4" s="28"/>
     </row>
     <row r="5" spans="2:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="13" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="15"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="25"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="Y7" s="15"/>
+      <c r="AG7" s="12"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1726,192 +1326,57 @@
       <c r="B16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="AG37" s="1"/>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="AG41" s="1"/>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="AG44" s="1"/>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="AG53" s="1"/>
-    </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="AG57" s="1"/>
-    </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="AG62" s="1"/>
-    </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="AG2:AG4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="N3:N4"/>
@@ -1928,9 +1393,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
@@ -1939,56 +1401,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2180,6 +1592,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2190,22 +1652,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2224,6 +1670,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
